--- a/Tasks/Task 101 - Mahfil App Testing/Mahfil App Testing.xlsx
+++ b/Tasks/Task 101 - Mahfil App Testing/Mahfil App Testing.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SQA\SQA Sample Works\Manual Testing\Test Case Writing\Mobile Application Testing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\SQA\SQA Sample Works\Tasks\Task 101 - Mahfil App Testing\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{789F1047-DB0F-4128-B738-E239BD9AC968}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6559695C-1952-4B8D-B18F-C1C0718D0325}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="661" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="354">
   <si>
     <t>Faysal Mahmud</t>
   </si>
@@ -1198,12 +1198,15 @@
   <si>
     <t>Test Executed By</t>
   </si>
+  <si>
+    <t>Bug Reporting</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1255,8 +1258,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1273,6 +1284,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFDBEEF4"/>
         <bgColor rgb="FFDCE6F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1398,7 +1415,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1520,50 +1537,53 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1868,10 +1888,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="51" t="s">
         <v>317</v>
       </c>
-      <c r="B1" s="41"/>
+      <c r="B1" s="51"/>
       <c r="C1" s="33" t="s">
         <v>351</v>
       </c>
@@ -1889,10 +1909,10 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
+      <c r="A2" s="51" t="s">
         <v>320</v>
       </c>
-      <c r="B2" s="41"/>
+      <c r="B2" s="51"/>
       <c r="C2" s="33"/>
       <c r="D2" s="34" t="s">
         <v>321</v>
@@ -1908,8 +1928,8 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="41"/>
-      <c r="B3" s="41"/>
+      <c r="A3" s="51"/>
+      <c r="B3" s="51"/>
       <c r="C3" s="38"/>
       <c r="D3" s="37" t="s">
         <v>323</v>
@@ -1924,56 +1944,56 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:10" s="47" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" s="42" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
-      <c r="H4" s="49"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="43"/>
       <c r="J4" s="23"/>
     </row>
-    <row r="5" spans="1:10" s="54" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="52"/>
-      <c r="B5" s="52"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="53"/>
-      <c r="J5" s="55"/>
-    </row>
-    <row r="6" spans="1:10" s="50" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
+    <row r="5" spans="1:10" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="46"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="47"/>
+      <c r="J5" s="49"/>
+    </row>
+    <row r="6" spans="1:10" s="44" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="44" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="44" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="50" t="s">
+      <c r="D6" s="44" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="50" t="s">
+      <c r="E6" s="44" t="s">
         <v>4</v>
       </c>
-      <c r="F6" s="50" t="s">
+      <c r="F6" s="44" t="s">
         <v>5</v>
       </c>
-      <c r="G6" s="50" t="s">
+      <c r="G6" s="44" t="s">
         <v>6</v>
       </c>
-      <c r="H6" s="50" t="s">
+      <c r="H6" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="50" t="s">
+      <c r="I6" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="J6" s="50" t="s">
+      <c r="J6" s="44" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2646,7 +2666,7 @@
       <c r="B29" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C29" s="42" t="s">
+      <c r="C29" s="53" t="s">
         <v>288</v>
       </c>
       <c r="D29" s="1" t="s">
@@ -2676,7 +2696,7 @@
       <c r="B30" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C30" s="44"/>
+      <c r="C30" s="54"/>
       <c r="D30" s="1" t="s">
         <v>59</v>
       </c>
@@ -2704,7 +2724,7 @@
       <c r="B31" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C31" s="42" t="s">
+      <c r="C31" s="53" t="s">
         <v>289</v>
       </c>
       <c r="D31" s="1" t="s">
@@ -2732,7 +2752,7 @@
       <c r="B32" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="43"/>
+      <c r="C32" s="55"/>
       <c r="D32" s="1" t="s">
         <v>119</v>
       </c>
@@ -2760,7 +2780,7 @@
       <c r="B33" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C33" s="42" t="s">
+      <c r="C33" s="53" t="s">
         <v>290</v>
       </c>
       <c r="D33" s="1" t="s">
@@ -2788,7 +2808,7 @@
       <c r="B34" s="40" t="s">
         <v>10</v>
       </c>
-      <c r="C34" s="43"/>
+      <c r="C34" s="55"/>
       <c r="D34" s="1" t="s">
         <v>126</v>
       </c>
@@ -2813,7 +2833,7 @@
       <c r="A35" s="8" t="s">
         <v>138</v>
       </c>
-      <c r="B35" s="45" t="s">
+      <c r="B35" s="52" t="s">
         <v>133</v>
       </c>
       <c r="C35" s="1" t="s">
@@ -2843,7 +2863,7 @@
       <c r="A36" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="B36" s="45"/>
+      <c r="B36" s="52"/>
       <c r="C36" s="1" t="s">
         <v>139</v>
       </c>
@@ -2871,7 +2891,7 @@
       <c r="A37" s="8" t="s">
         <v>148</v>
       </c>
-      <c r="B37" s="42"/>
+      <c r="B37" s="53"/>
       <c r="C37" s="13" t="s">
         <v>143</v>
       </c>
@@ -3229,7 +3249,7 @@
       <c r="A49" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="B49" s="45" t="s">
+      <c r="B49" s="52" t="s">
         <v>203</v>
       </c>
       <c r="C49" s="1" t="s">
@@ -3259,7 +3279,7 @@
       <c r="A50" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="B50" s="45"/>
+      <c r="B50" s="52"/>
       <c r="C50" s="1" t="s">
         <v>208</v>
       </c>
@@ -3287,7 +3307,7 @@
       <c r="A51" s="8" t="s">
         <v>217</v>
       </c>
-      <c r="B51" s="45"/>
+      <c r="B51" s="52"/>
       <c r="C51" s="1" t="s">
         <v>212</v>
       </c>
@@ -3347,7 +3367,7 @@
       <c r="A53" s="8" t="s">
         <v>225</v>
       </c>
-      <c r="B53" s="42" t="s">
+      <c r="B53" s="53" t="s">
         <v>226</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -3377,7 +3397,7 @@
       <c r="A54" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="B54" s="44"/>
+      <c r="B54" s="54"/>
       <c r="C54" s="1" t="s">
         <v>231</v>
       </c>
@@ -3405,7 +3425,7 @@
       <c r="A55" s="8" t="s">
         <v>249</v>
       </c>
-      <c r="B55" s="44"/>
+      <c r="B55" s="54"/>
       <c r="C55" s="1" t="s">
         <v>235</v>
       </c>
@@ -3433,7 +3453,7 @@
       <c r="A56" s="8" t="s">
         <v>250</v>
       </c>
-      <c r="B56" s="44"/>
+      <c r="B56" s="54"/>
       <c r="C56" s="1" t="s">
         <v>239</v>
       </c>
@@ -3461,7 +3481,7 @@
       <c r="A57" s="8" t="s">
         <v>251</v>
       </c>
-      <c r="B57" s="43"/>
+      <c r="B57" s="55"/>
       <c r="C57" s="1" t="s">
         <v>244</v>
       </c>
@@ -3704,31 +3724,31 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="23"/>
-      <c r="B67" s="47"/>
+      <c r="B67" s="42"/>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" s="23"/>
-      <c r="B68" s="47"/>
+      <c r="B68" s="42"/>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" s="23"/>
-      <c r="B69" s="47"/>
+      <c r="B69" s="42"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="23"/>
-      <c r="B70" s="47"/>
+      <c r="B70" s="42"/>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" s="23"/>
-      <c r="B71" s="47"/>
+      <c r="B71" s="42"/>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72" s="23"/>
-      <c r="B72" s="47"/>
+      <c r="B72" s="42"/>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="23"/>
-      <c r="B73" s="47"/>
+      <c r="B73" s="42"/>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A74" s="23"/>
@@ -3813,16 +3833,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B53:B57"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="B35:B37"/>
     <mergeCell ref="C4:G4"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
     <mergeCell ref="A3:B3"/>
     <mergeCell ref="B49:B51"/>
-    <mergeCell ref="B53:B57"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="B35:B37"/>
   </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
@@ -3843,11 +3863,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2169BD0B-786C-4C25-B011-25F528316559}">
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I5" sqref="I5"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3862,76 +3882,62 @@
     <col min="8" max="8" width="19.85546875" style="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="24" t="s">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="56" t="s">
+        <v>353</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+    </row>
+    <row r="2" spans="1:8" s="24" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="24" t="s">
         <v>297</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D2" s="24" t="s">
         <v>299</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="G1" s="24" t="s">
+      <c r="G2" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A2" s="22" t="s">
+    <row r="3" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B3" s="10" t="s">
         <v>306</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C3" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="D2" s="10" t="s">
+      <c r="D3" s="10" t="s">
         <v>303</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="E3" s="28" t="s">
         <v>305</v>
       </c>
-      <c r="F2" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>307</v>
-      </c>
-      <c r="G2" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="H2" s="31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="22" t="s">
-        <v>104</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="C3" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>328</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>309</v>
-      </c>
-      <c r="F3" s="10" t="s">
-        <v>23</v>
       </c>
       <c r="G3" s="10" t="s">
         <v>25</v>
@@ -3940,24 +3946,24 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="22" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B4" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>26</v>
+      <c r="C4" s="10" t="s">
+        <v>308</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="G4" s="10" t="s">
         <v>25</v>
@@ -3966,76 +3972,76 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="90" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
-        <v>86</v>
+        <v>105</v>
       </c>
       <c r="B5" s="10" t="s">
         <v>286</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>37</v>
+        <v>26</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>311</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>38</v>
+        <v>329</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>310</v>
+      </c>
+      <c r="F5" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="G5" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H5" s="22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="150" x14ac:dyDescent="0.25">
+      <c r="H5" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B6" s="10" t="s">
         <v>286</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E6" s="25" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="G6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="31" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="H6" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="150" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>286</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="E7" s="25" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>25</v>
@@ -4044,252 +4050,281 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>333</v>
-      </c>
-      <c r="E8" s="40" t="s">
-        <v>314</v>
+        <v>332</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>313</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="G8" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H8" s="22" t="s">
-        <v>12</v>
+      <c r="H8" s="31" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B9" s="10" t="s">
         <v>287</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>77</v>
+        <v>37</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E9" s="40" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>78</v>
+        <v>38</v>
       </c>
       <c r="G9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H9" s="31" t="s">
-        <v>14</v>
+      <c r="H9" s="22" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B10" s="10" t="s">
         <v>287</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>335</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>316</v>
+        <v>334</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>315</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>23</v>
+        <v>78</v>
       </c>
       <c r="G10" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="H10" s="31" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="120" x14ac:dyDescent="0.25">
       <c r="A11" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B11" s="10" t="s">
         <v>287</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>81</v>
+        <v>21</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="E11" s="40" t="s">
-        <v>313</v>
+        <v>335</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>316</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="G11" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H11" s="31" t="s">
+      <c r="H11" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="22" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>287</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>313</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="H12" s="31" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="22" t="s">
+    <row r="13" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A13" s="22" t="s">
         <v>130</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="D12" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="E12" s="40" t="s">
-        <v>324</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="H12" s="22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
-        <v>132</v>
       </c>
       <c r="B13" s="10" t="s">
         <v>289</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>122</v>
       </c>
       <c r="G13" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H13" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A14" s="22" t="s">
+        <v>132</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>325</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="G14" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="H13" s="22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="105" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="H14" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="105" x14ac:dyDescent="0.25">
+      <c r="A15" s="22" t="s">
         <v>224</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C15" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D15" s="10" t="s">
         <v>339</v>
       </c>
-      <c r="E14" s="40" t="s">
+      <c r="E15" s="40" t="s">
         <v>326</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G15" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="H14" s="31" t="s">
+      <c r="H15" s="31" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="22" t="s">
+    <row r="16" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="22" t="s">
         <v>251</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D16" s="10" t="s">
         <v>340</v>
       </c>
-      <c r="E15" s="40" t="s">
+      <c r="E16" s="40" t="s">
         <v>327</v>
       </c>
-      <c r="F15" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G16" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H15" s="22" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="90" x14ac:dyDescent="0.25">
-      <c r="A16" s="22" t="s">
+      <c r="H16" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="90" x14ac:dyDescent="0.25">
+      <c r="A17" s="22" t="s">
         <v>347</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B17" s="10" t="s">
         <v>348</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>343</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D17" s="10" t="s">
         <v>349</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>344</v>
       </c>
-      <c r="F16" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G17" s="1" t="s">
         <v>350</v>
       </c>
-      <c r="H16" s="31" t="s">
+      <c r="H17" s="31" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:H1"/>
+  </mergeCells>
   <phoneticPr fontId="3" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" xr:uid="{6EEDB61B-8122-42B8-B63C-053B4B9D1FC9}"/>
-    <hyperlink ref="H3" r:id="rId2" xr:uid="{B5A7D979-6F17-4C7E-9CFF-6CBC9A2FA87E}"/>
-    <hyperlink ref="H4" r:id="rId3" xr:uid="{D61EED84-B8E2-4F2E-970A-B5F1B9D13FE1}"/>
-    <hyperlink ref="H6" r:id="rId4" xr:uid="{CD0B5DD3-712C-4D31-8DBF-DA09C83FBCFC}"/>
-    <hyperlink ref="H7" r:id="rId5" xr:uid="{0D8448B0-F81C-4CC5-827D-DF77082A3AFD}"/>
-    <hyperlink ref="H9" r:id="rId6" xr:uid="{CB5AEEAB-79DA-432F-A572-BE252D5D48EC}"/>
-    <hyperlink ref="H11" r:id="rId7" xr:uid="{2188A1B1-46C1-4487-82AB-0F41DB5BB8CF}"/>
-    <hyperlink ref="H14" r:id="rId8" xr:uid="{F4A2C136-411D-4AB5-9631-270015ABEF0E}"/>
-    <hyperlink ref="H16" r:id="rId9" xr:uid="{6DA07BE9-0206-490F-B56A-B67CFBCE0D36}"/>
+    <hyperlink ref="H3" r:id="rId1" xr:uid="{6EEDB61B-8122-42B8-B63C-053B4B9D1FC9}"/>
+    <hyperlink ref="H4" r:id="rId2" xr:uid="{B5A7D979-6F17-4C7E-9CFF-6CBC9A2FA87E}"/>
+    <hyperlink ref="H5" r:id="rId3" xr:uid="{D61EED84-B8E2-4F2E-970A-B5F1B9D13FE1}"/>
+    <hyperlink ref="H7" r:id="rId4" xr:uid="{CD0B5DD3-712C-4D31-8DBF-DA09C83FBCFC}"/>
+    <hyperlink ref="H8" r:id="rId5" xr:uid="{0D8448B0-F81C-4CC5-827D-DF77082A3AFD}"/>
+    <hyperlink ref="H10" r:id="rId6" xr:uid="{CB5AEEAB-79DA-432F-A572-BE252D5D48EC}"/>
+    <hyperlink ref="H12" r:id="rId7" xr:uid="{2188A1B1-46C1-4487-82AB-0F41DB5BB8CF}"/>
+    <hyperlink ref="H15" r:id="rId8" xr:uid="{F4A2C136-411D-4AB5-9631-270015ABEF0E}"/>
+    <hyperlink ref="H17" r:id="rId9" xr:uid="{6DA07BE9-0206-490F-B56A-B67CFBCE0D36}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId10"/>
